--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_2_6.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_2_6.xlsx
@@ -518,221 +518,221 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_24</t>
+          <t>model_2_6_18</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.954351231289187</v>
+        <v>0.9966128480731739</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7969679636776321</v>
+        <v>0.8213610991351497</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6589625628849818</v>
+        <v>0.9908832428961747</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7851620565932874</v>
+        <v>0.9044140336577194</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8010326708678859</v>
+        <v>0.9887627809395688</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3052535265624594</v>
+        <v>0.02264990053108689</v>
       </c>
       <c r="H2" t="n">
-        <v>1.357676161764239</v>
+        <v>1.194559152639758</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5361280137768933</v>
+        <v>0.1060047541803915</v>
       </c>
       <c r="J2" t="n">
-        <v>1.371522619341432</v>
+        <v>0.03273268594508429</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9538252659894102</v>
+        <v>0.06936872006273788</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4553031453502806</v>
+        <v>0.1609835215423099</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5524975353451447</v>
+        <v>0.1504988389692322</v>
       </c>
       <c r="N2" t="n">
-        <v>1.029610012136744</v>
+        <v>1.002197071520103</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5760184992523539</v>
+        <v>0.1569058861196976</v>
       </c>
       <c r="P2" t="n">
-        <v>124.3732252260558</v>
+        <v>129.5751996372525</v>
       </c>
       <c r="Q2" t="n">
-        <v>198.724650543016</v>
+        <v>203.9266249542127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_23</t>
+          <t>model_2_6_17</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9543057223115374</v>
+        <v>0.996608465253454</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7968686481670729</v>
+        <v>0.8213604154170185</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6588880005632201</v>
+        <v>0.9908550123255638</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7848892465420244</v>
+        <v>0.9067712457236887</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8008387853249934</v>
+        <v>0.988801579988991</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3055578453055511</v>
+        <v>0.0226792084667342</v>
       </c>
       <c r="H3" t="n">
-        <v>1.358340285040654</v>
+        <v>1.194563724666049</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5362452294990349</v>
+        <v>0.1063330040902989</v>
       </c>
       <c r="J3" t="n">
-        <v>1.373264235138705</v>
+        <v>0.03192547663168945</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9547547297879525</v>
+        <v>0.06912920881145816</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4559482506093602</v>
+        <v>0.1613261748556496</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5527728695454862</v>
+        <v>0.1505961767998583</v>
       </c>
       <c r="N3" t="n">
-        <v>1.029639531473597</v>
+        <v>1.002199914430192</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5763055549996244</v>
+        <v>0.1570073678232905</v>
       </c>
       <c r="P3" t="n">
-        <v>124.3712323439171</v>
+        <v>129.5726134015748</v>
       </c>
       <c r="Q3" t="n">
-        <v>198.7226576608774</v>
+        <v>203.9240387185351</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_22</t>
+          <t>model_2_6_19</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9542547526267164</v>
+        <v>0.996614594302926</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7967579563720107</v>
+        <v>0.8213595096779782</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6588006422476766</v>
+        <v>0.9909064090115924</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7845854139683008</v>
+        <v>0.9022742011557484</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8006221588966858</v>
+        <v>0.9887252467534652</v>
       </c>
       <c r="G4" t="n">
-        <v>0.305898679822643</v>
+        <v>0.02263822348469405</v>
       </c>
       <c r="H4" t="n">
-        <v>1.359080481583924</v>
+        <v>1.194569781347182</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5363825611673567</v>
+        <v>0.1057353910348992</v>
       </c>
       <c r="J4" t="n">
-        <v>1.375203898313407</v>
+        <v>0.03346545528291041</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9557932106355475</v>
+        <v>0.06960042315890479</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4566647098627172</v>
+        <v>0.1606697985098755</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5530810788868509</v>
+        <v>0.1504600394945251</v>
       </c>
       <c r="N4" t="n">
-        <v>1.029672592890779</v>
+        <v>1.002195938830535</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5766268854507324</v>
+        <v>0.1568654348710261</v>
       </c>
       <c r="P4" t="n">
-        <v>124.3690026871001</v>
+        <v>129.5762309934329</v>
       </c>
       <c r="Q4" t="n">
-        <v>198.7204280040603</v>
+        <v>203.9276563103932</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_21</t>
+          <t>model_2_6_16</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9541976300866277</v>
+        <v>0.9966006368463154</v>
       </c>
       <c r="C5" t="n">
-        <v>0.796634476036043</v>
+        <v>0.8213567756064643</v>
       </c>
       <c r="D5" t="n">
-        <v>0.658699816807774</v>
+        <v>0.9908207449138893</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7842465799052325</v>
+        <v>0.9093653516538666</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8003799981874595</v>
+        <v>0.9888412540540489</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3062806585112412</v>
+        <v>0.02273155706131697</v>
       </c>
       <c r="H5" t="n">
-        <v>1.359906195159115</v>
+        <v>1.194588064095986</v>
       </c>
       <c r="I5" t="n">
-        <v>0.536541063832901</v>
+        <v>0.1067314471451695</v>
       </c>
       <c r="J5" t="n">
-        <v>1.377367010538056</v>
+        <v>0.03103714481928998</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9569540997317496</v>
+        <v>0.06888429598222971</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4574608189659075</v>
+        <v>0.1616952040487632</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5534262900434359</v>
+        <v>0.1507698811477842</v>
       </c>
       <c r="N5" t="n">
-        <v>1.029709645349214</v>
+        <v>1.002204992315904</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5769867929609387</v>
+        <v>0.1571884671249251</v>
       </c>
       <c r="P5" t="n">
-        <v>124.3665068254187</v>
+        <v>129.5680022819724</v>
       </c>
       <c r="Q5" t="n">
-        <v>198.7179321423789</v>
+        <v>203.9194275989327</v>
       </c>
     </row>
     <row r="6">
@@ -742,382 +742,382 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9541336647542629</v>
+        <v>0.9966144165411936</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7964967309261459</v>
+        <v>0.8213563069678591</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6585799357569512</v>
+        <v>0.9909255410308347</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7838700573605945</v>
+        <v>0.9003338303453644</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8001096492063101</v>
+        <v>0.9886894457126558</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3067083949832988</v>
+        <v>0.02263941217821631</v>
       </c>
       <c r="H6" t="n">
-        <v>1.360827297343255</v>
+        <v>1.194591197884496</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5367295228777814</v>
+        <v>0.1055129341926627</v>
       </c>
       <c r="J6" t="n">
-        <v>1.379770725535855</v>
+        <v>0.03412992048406634</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9582501199878367</v>
+        <v>0.06982142733836452</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4583456611949779</v>
+        <v>0.160380506350002</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5538125991554352</v>
+        <v>0.150463989639436</v>
       </c>
       <c r="N6" t="n">
-        <v>1.029751136375613</v>
+        <v>1.002196054135442</v>
       </c>
       <c r="O6" t="n">
-        <v>0.577389548051606</v>
+        <v>0.1568695531817839</v>
       </c>
       <c r="P6" t="n">
-        <v>124.3637156725324</v>
+        <v>129.5761259796878</v>
       </c>
       <c r="Q6" t="n">
-        <v>198.7151409894927</v>
+        <v>203.9275512966481</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_19</t>
+          <t>model_2_6_21</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9540619103655672</v>
+        <v>0.9966128015095291</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7963429181202749</v>
+        <v>0.8213520422408713</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6584396929342744</v>
+        <v>0.9909412742644762</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7834505425099146</v>
+        <v>0.8985747155518924</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7998073227895108</v>
+        <v>0.9886554667403304</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3071882169109053</v>
+        <v>0.02265021190239379</v>
       </c>
       <c r="H7" t="n">
-        <v>1.361855844284357</v>
+        <v>1.194619716133501</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5369499916527178</v>
+        <v>0.1053299966036025</v>
       </c>
       <c r="J7" t="n">
-        <v>1.382448902852829</v>
+        <v>0.03473231594314329</v>
       </c>
       <c r="K7" t="n">
-        <v>0.959699436195563</v>
+        <v>0.07003118366745079</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4593299281466793</v>
+        <v>0.1601183851566184</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5542456286800153</v>
+        <v>0.1504998734298265</v>
       </c>
       <c r="N7" t="n">
-        <v>1.029797679762875</v>
+        <v>1.002197101723549</v>
       </c>
       <c r="O7" t="n">
-        <v>0.577841012539542</v>
+        <v>0.1569069646194209</v>
       </c>
       <c r="P7" t="n">
-        <v>124.3605892697081</v>
+        <v>129.5751721431656</v>
       </c>
       <c r="Q7" t="n">
-        <v>198.7120145866684</v>
+        <v>203.9265974601258</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_18</t>
+          <t>model_2_6_15</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9539812814603968</v>
+        <v>0.9965882808616794</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7961711293043628</v>
+        <v>0.8213490290521597</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6582736039771702</v>
+        <v>0.990779101586201</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7829829679248601</v>
+        <v>0.9122164923176144</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7994687543291679</v>
+        <v>0.9888811118522508</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3077273827710416</v>
+        <v>0.02281418158747207</v>
       </c>
       <c r="H8" t="n">
-        <v>1.363004596887376</v>
+        <v>1.19463986534029</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5372110918516748</v>
+        <v>0.1072156533891858</v>
       </c>
       <c r="J8" t="n">
-        <v>1.385433892885141</v>
+        <v>0.03006079342061784</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9613224923684078</v>
+        <v>0.06863824894595533</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4604204126679553</v>
+        <v>0.1620998320983373</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5547318115729812</v>
+        <v>0.1510436413341259</v>
       </c>
       <c r="N8" t="n">
-        <v>1.029849979593256</v>
+        <v>1.00221300700864</v>
       </c>
       <c r="O8" t="n">
-        <v>0.578347893244799</v>
+        <v>0.1574738818491611</v>
       </c>
       <c r="P8" t="n">
-        <v>124.3570820176652</v>
+        <v>129.5607458738654</v>
       </c>
       <c r="Q8" t="n">
-        <v>198.7085073346254</v>
+        <v>203.9121711908256</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_17</t>
+          <t>model_2_6_22</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9538907054067292</v>
+        <v>0.9966101954594163</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7959791147003101</v>
+        <v>0.8213469903043092</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6580777035670686</v>
+        <v>0.9909542612190312</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7824621734929459</v>
+        <v>0.8969830303666827</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7990898679387012</v>
+        <v>0.988623554170845</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3083330652589815</v>
+        <v>0.02266763857149788</v>
       </c>
       <c r="H9" t="n">
-        <v>1.364288599428822</v>
+        <v>1.194653498456554</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5375190571549985</v>
+        <v>0.1051789912724876</v>
       </c>
       <c r="J9" t="n">
-        <v>1.388758637723371</v>
+        <v>0.03527737640844577</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9631388278127393</v>
+        <v>0.0702281838404667</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4616373856551678</v>
+        <v>0.1598828596609602</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5552774669108963</v>
+        <v>0.1505577582574139</v>
       </c>
       <c r="N9" t="n">
-        <v>1.029908731628068</v>
+        <v>1.002198792134433</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5789167782601113</v>
+        <v>0.1569673137239568</v>
       </c>
       <c r="P9" t="n">
-        <v>124.3531493991371</v>
+        <v>129.5736339704781</v>
       </c>
       <c r="Q9" t="n">
-        <v>198.7045747160973</v>
+        <v>203.9250592874384</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_16</t>
+          <t>model_2_6_23</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.953788819820111</v>
+        <v>0.9966069139871071</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7957644318219133</v>
+        <v>0.8213415523521389</v>
       </c>
       <c r="D10" t="n">
-        <v>0.657845065433741</v>
+        <v>0.9909649838349134</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7818819909041037</v>
+        <v>0.8955436854980007</v>
       </c>
       <c r="F10" t="n">
-        <v>0.798665396686507</v>
+        <v>0.9885937300487003</v>
       </c>
       <c r="G10" t="n">
-        <v>0.309014374645837</v>
+        <v>0.02268958179193933</v>
       </c>
       <c r="H10" t="n">
-        <v>1.365724184825186</v>
+        <v>1.194689862067756</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5378847760080511</v>
+        <v>0.105054314455082</v>
       </c>
       <c r="J10" t="n">
-        <v>1.392462515778276</v>
+        <v>0.03577026909296949</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9651736915604459</v>
+        <v>0.07041229177402576</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4629880885848813</v>
+        <v>0.1596661595680591</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5558906139213334</v>
+        <v>0.1506306137275532</v>
       </c>
       <c r="N10" t="n">
-        <v>1.029974819576144</v>
+        <v>1.002200920657012</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5795560282081721</v>
+        <v>0.1570432708022916</v>
       </c>
       <c r="P10" t="n">
-        <v>124.3487349665539</v>
+        <v>129.5716988234848</v>
       </c>
       <c r="Q10" t="n">
-        <v>198.7001602835142</v>
+        <v>203.923124140445</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_15</t>
+          <t>model_2_6_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9536740700095262</v>
+        <v>0.9965700452942626</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7955242851001801</v>
+        <v>0.8213360196064746</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6575686109655634</v>
+        <v>0.9907285271839973</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7812353047692069</v>
+        <v>0.9153434678095429</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7981894821735162</v>
+        <v>0.9889202175158208</v>
       </c>
       <c r="G11" t="n">
-        <v>0.309781707157592</v>
+        <v>0.02293612291075464</v>
       </c>
       <c r="H11" t="n">
-        <v>1.367330047059189</v>
+        <v>1.194726859563489</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5383193763445349</v>
+        <v>0.1078037053699909</v>
       </c>
       <c r="J11" t="n">
-        <v>1.39659095160093</v>
+        <v>0.02898998448650342</v>
       </c>
       <c r="K11" t="n">
-        <v>0.967455168066774</v>
+        <v>0.06839684492824717</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4644863629987606</v>
+        <v>0.162538560886265</v>
       </c>
       <c r="M11" t="n">
-        <v>0.5565803690012718</v>
+        <v>0.151446765930325</v>
       </c>
       <c r="N11" t="n">
-        <v>1.030049251885713</v>
+        <v>1.002224835484803</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5802751475898533</v>
+        <v>0.1578941682940033</v>
       </c>
       <c r="P11" t="n">
-        <v>124.3437748000136</v>
+        <v>129.5500843831159</v>
       </c>
       <c r="Q11" t="n">
-        <v>198.6952001169738</v>
+        <v>203.9015097000762</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_14</t>
+          <t>model_2_6_24</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9535446405936939</v>
+        <v>0.9966031807042826</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7952553521542448</v>
+        <v>0.821335872769172</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6572380517423011</v>
+        <v>0.9909738514093419</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7805144112770159</v>
+        <v>0.8942403199635038</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7976552777897865</v>
+        <v>0.9885659304826068</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3106472022572301</v>
+        <v>0.0227145462713774</v>
       </c>
       <c r="H12" t="n">
-        <v>1.369128402906981</v>
+        <v>1.194727841465208</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5388390320788217</v>
+        <v>0.1049512070631926</v>
       </c>
       <c r="J12" t="n">
-        <v>1.401193126221473</v>
+        <v>0.03621659669047016</v>
       </c>
       <c r="K12" t="n">
-        <v>0.970016079150147</v>
+        <v>0.07058390187683139</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4661540815547806</v>
+        <v>0.1594669626197265</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5573573380312044</v>
+        <v>0.1507134574992472</v>
       </c>
       <c r="N12" t="n">
-        <v>1.030133206101388</v>
+        <v>1.002203342245871</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5810851937999375</v>
+        <v>0.1571296414048569</v>
       </c>
       <c r="P12" t="n">
-        <v>124.3381948172118</v>
+        <v>129.5694995096322</v>
       </c>
       <c r="Q12" t="n">
-        <v>198.6896201341721</v>
+        <v>203.9209248265924</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9533983683873528</v>
+        <v>0.9965442484649697</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7949539948065294</v>
+        <v>0.8213160640722431</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6568428929210256</v>
+        <v>0.9906671240115045</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7797096969593074</v>
+        <v>0.9187667358953422</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7970546665618158</v>
+        <v>0.98895733884586</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3116253251745544</v>
+        <v>0.02310862642702053</v>
       </c>
       <c r="H13" t="n">
-        <v>1.371143580878778</v>
+        <v>1.194860302312782</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5394602416321452</v>
+        <v>0.1085176684746197</v>
       </c>
       <c r="J13" t="n">
-        <v>1.406330411895241</v>
+        <v>0.02781771241094526</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9728953365979618</v>
+        <v>0.06816769044278245</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4680047970926128</v>
+        <v>0.1630027060829071</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5582341132307792</v>
+        <v>0.1520152177481601</v>
       </c>
       <c r="N13" t="n">
-        <v>1.030228085370366</v>
+        <v>1.002241568563263</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5819992951349333</v>
+        <v>0.1584868202825812</v>
       </c>
       <c r="P13" t="n">
-        <v>124.3319073873173</v>
+        <v>129.535098585532</v>
       </c>
       <c r="Q13" t="n">
-        <v>198.6833327042775</v>
+        <v>203.8865239024922</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9532329760167875</v>
+        <v>0.9965087268559225</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7946160703743047</v>
+        <v>0.821287142024158</v>
       </c>
       <c r="D14" t="n">
-        <v>0.656369448228477</v>
+        <v>0.990592391779068</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7788121566080564</v>
+        <v>0.9225062465990017</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7963794153396122</v>
+        <v>0.988990687179821</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3127313047180871</v>
+        <v>0.0233461595902806</v>
       </c>
       <c r="H14" t="n">
-        <v>1.373403283113062</v>
+        <v>1.195053704181501</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5402045205148289</v>
+        <v>0.1093866147280476</v>
       </c>
       <c r="J14" t="n">
-        <v>1.412060297752424</v>
+        <v>0.0265371454602189</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9761324091336262</v>
+        <v>0.06796182712102521</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4700661008999429</v>
+        <v>0.163514768221268</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5592238413355488</v>
+        <v>0.152794501178153</v>
       </c>
       <c r="N14" t="n">
-        <v>1.03033536690803</v>
+        <v>1.002264609606969</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5830311580141425</v>
+        <v>0.159299279421528</v>
       </c>
       <c r="P14" t="n">
-        <v>124.3248218170046</v>
+        <v>129.514645559805</v>
       </c>
       <c r="Q14" t="n">
-        <v>198.6762471339648</v>
+        <v>203.8660708767652</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9530456460179292</v>
+        <v>0.9964608892731684</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7942367332434775</v>
+        <v>0.8212466876937345</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6558009722305413</v>
+        <v>0.9905017060494362</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7778104924978144</v>
+        <v>0.926580542681411</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7956192677139809</v>
+        <v>0.9890182794401413</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3139839812830277</v>
+        <v>0.02366604972642884</v>
       </c>
       <c r="H15" t="n">
-        <v>1.375939912253591</v>
+        <v>1.195324222475317</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5410981933920103</v>
+        <v>0.1104410596768173</v>
       </c>
       <c r="J15" t="n">
-        <v>1.418454908324442</v>
+        <v>0.02514193380712709</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9797764647399991</v>
+        <v>0.06779149674197221</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4723567717989633</v>
+        <v>0.1640469318272086</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5603427355494383</v>
+        <v>0.1538377383038013</v>
       </c>
       <c r="N15" t="n">
-        <v>1.030456878258641</v>
+        <v>1.002295639390377</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5841976858711476</v>
+        <v>0.1603869293114136</v>
       </c>
       <c r="P15" t="n">
-        <v>124.3168266187948</v>
+        <v>129.4874275176922</v>
       </c>
       <c r="Q15" t="n">
-        <v>198.6682519357551</v>
+        <v>203.8388528346524</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9528330101472093</v>
+        <v>0.9963974379014171</v>
       </c>
       <c r="C16" t="n">
-        <v>0.793810528301119</v>
+        <v>0.8211915712357056</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6551158214716712</v>
+        <v>0.9903917922050619</v>
       </c>
       <c r="E16" t="n">
-        <v>0.776691780443955</v>
+        <v>0.9310022099135022</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7947620115180235</v>
+        <v>0.9890373990902382</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3154058783296292</v>
+        <v>0.02409034934149707</v>
       </c>
       <c r="H16" t="n">
-        <v>1.378789946665636</v>
+        <v>1.195692786483945</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5421752848650113</v>
+        <v>0.1117190788146778</v>
       </c>
       <c r="J16" t="n">
-        <v>1.425596751436827</v>
+        <v>0.02362776755029976</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9838860470653829</v>
+        <v>0.06767346881636721</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4749034511056158</v>
+        <v>0.1646253796204154</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5616100767700213</v>
+        <v>0.1552106611721536</v>
       </c>
       <c r="N16" t="n">
-        <v>1.030594804228837</v>
+        <v>1.002336797036919</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5855189804312488</v>
+        <v>0.1618183003486139</v>
       </c>
       <c r="P16" t="n">
-        <v>124.3077899338598</v>
+        <v>129.4518879218909</v>
       </c>
       <c r="Q16" t="n">
-        <v>198.65921525082</v>
+        <v>203.8033132388512</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9525913051376057</v>
+        <v>0.9963142585474954</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7933311361367001</v>
+        <v>0.8211179501589222</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6542895325738123</v>
+        <v>0.9902584765415665</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7754420582620324</v>
+        <v>0.9357841115814025</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7937944120743964</v>
+        <v>0.9890444857919489</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3170221608417981</v>
+        <v>0.02464657006417682</v>
       </c>
       <c r="H17" t="n">
-        <v>1.381995644276502</v>
+        <v>1.19618509096339</v>
       </c>
       <c r="I17" t="n">
-        <v>0.543474252595248</v>
+        <v>0.1132692017340765</v>
       </c>
       <c r="J17" t="n">
-        <v>1.43357496149237</v>
+        <v>0.02199024175540264</v>
       </c>
       <c r="K17" t="n">
-        <v>0.98852460154925</v>
+        <v>0.06762972174473959</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4777348035294316</v>
+        <v>0.1652353855197964</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5630472101358803</v>
+        <v>0.1569922611601502</v>
       </c>
       <c r="N17" t="n">
-        <v>1.030751585856688</v>
+        <v>1.002390751212435</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5870172955397687</v>
+        <v>0.1636757467365199</v>
       </c>
       <c r="P17" t="n">
-        <v>124.29756719906</v>
+        <v>129.4062350672891</v>
       </c>
       <c r="Q17" t="n">
-        <v>198.6489925160203</v>
+        <v>203.7576603842494</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9523159535170115</v>
+        <v>0.9962063245913019</v>
       </c>
       <c r="C18" t="n">
-        <v>0.792791361875408</v>
+        <v>0.8210208495152888</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6532899061697535</v>
+        <v>0.9900970542957136</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7740450644296332</v>
+        <v>0.9409332906297038</v>
       </c>
       <c r="F18" t="n">
-        <v>0.792700325335959</v>
+        <v>0.9890352853016142</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3188634383965894</v>
+        <v>0.02536832492623338</v>
       </c>
       <c r="H18" t="n">
-        <v>1.385605117247195</v>
+        <v>1.196834403414474</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5450457156084016</v>
+        <v>0.1151461328945762</v>
       </c>
       <c r="J18" t="n">
-        <v>1.44249335183736</v>
+        <v>0.02022694461971733</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9937695207973373</v>
+        <v>0.06768651749064733</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4808809370033839</v>
+        <v>0.1658733977030614</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5646799433277132</v>
+        <v>0.1592743699602462</v>
       </c>
       <c r="N18" t="n">
-        <v>1.03093019231329</v>
+        <v>1.002460762427264</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5887195375638016</v>
+        <v>0.1660550096328524</v>
       </c>
       <c r="P18" t="n">
-        <v>124.2859847213117</v>
+        <v>129.34850786664</v>
       </c>
       <c r="Q18" t="n">
-        <v>198.6374100382719</v>
+        <v>203.6999331836003</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9520018062549158</v>
+        <v>0.9960673139122762</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7921828336237009</v>
+        <v>0.8208943482301948</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6520794676971637</v>
+        <v>0.9899019072279263</v>
       </c>
       <c r="E19" t="n">
-        <v>0.772483400278713</v>
+        <v>0.9464407976426551</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7914620233281227</v>
+        <v>0.9890042513382311</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3209641425847379</v>
+        <v>0.0262978899769633</v>
       </c>
       <c r="H19" t="n">
-        <v>1.389674348468375</v>
+        <v>1.197680318090382</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5469485858023559</v>
+        <v>0.117415198167923</v>
       </c>
       <c r="J19" t="n">
-        <v>1.452462995340914</v>
+        <v>0.01834094080248603</v>
       </c>
       <c r="K19" t="n">
-        <v>0.999705790571635</v>
+        <v>0.06787809392132668</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4843831419381224</v>
+        <v>0.1665417504742552</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5665369737137532</v>
+        <v>0.1621662417920675</v>
       </c>
       <c r="N19" t="n">
-        <v>1.031133963510325</v>
+        <v>1.002550931516361</v>
       </c>
       <c r="O19" t="n">
-        <v>0.590655625577958</v>
+        <v>0.1690699944355543</v>
       </c>
       <c r="P19" t="n">
-        <v>124.2728517348702</v>
+        <v>129.2765331440595</v>
       </c>
       <c r="Q19" t="n">
-        <v>198.6242770518305</v>
+        <v>203.6279584610197</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9516425851367579</v>
+        <v>0.9958894978185076</v>
       </c>
       <c r="C20" t="n">
-        <v>0.791495871265904</v>
+        <v>0.8207310169186284</v>
       </c>
       <c r="D20" t="n">
-        <v>0.65061044573774</v>
+        <v>0.9896663409857567</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7707365574257374</v>
+        <v>0.9522879356114418</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7900580295539038</v>
+        <v>0.9889445898051803</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3233662558559214</v>
+        <v>0.02748694701476243</v>
       </c>
       <c r="H20" t="n">
-        <v>1.394268068918133</v>
+        <v>1.198772515322899</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5492579622507688</v>
+        <v>0.1201542358882441</v>
       </c>
       <c r="J20" t="n">
-        <v>1.463614817255143</v>
+        <v>0.01633863295193274</v>
       </c>
       <c r="K20" t="n">
-        <v>1.006436366596267</v>
+        <v>0.06824639182158644</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4882743387337962</v>
+        <v>0.1672309958788797</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5686530188576523</v>
+        <v>0.1657918786152157</v>
       </c>
       <c r="N20" t="n">
-        <v>1.031366971803184</v>
+        <v>1.002666271685292</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5928617551444503</v>
+        <v>0.1728499821243668</v>
       </c>
       <c r="P20" t="n">
-        <v>124.2579393582031</v>
+        <v>129.1880880820042</v>
       </c>
       <c r="Q20" t="n">
-        <v>198.6093646751633</v>
+        <v>203.5395133989645</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9512309365186609</v>
+        <v>0.9956632639747994</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7907193364770506</v>
+        <v>0.8205217281218483</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6488253442571525</v>
+        <v>0.989382389124456</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7687813820586616</v>
+        <v>0.9584389256087485</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7884634859014392</v>
+        <v>0.9888477696457165</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3261189520606038</v>
+        <v>0.0289997737693497</v>
       </c>
       <c r="H21" t="n">
-        <v>1.399460760626811</v>
+        <v>1.200172030470652</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5520642316130814</v>
+        <v>0.1234558755955936</v>
       </c>
       <c r="J21" t="n">
-        <v>1.476096631213152</v>
+        <v>0.01423227328913211</v>
       </c>
       <c r="K21" t="n">
-        <v>1.014080415647325</v>
+        <v>0.06884407444236286</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4926021219611323</v>
+        <v>0.1679419178339744</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5710682551679823</v>
+        <v>0.1702931994219079</v>
       </c>
       <c r="N21" t="n">
-        <v>1.031633987123031</v>
+        <v>1.002813017962292</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5953798130647394</v>
+        <v>0.1775429334768186</v>
       </c>
       <c r="P21" t="n">
-        <v>124.2409861610956</v>
+        <v>129.080934500166</v>
       </c>
       <c r="Q21" t="n">
-        <v>198.5924114780558</v>
+        <v>203.4323598171262</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9507580538581917</v>
+        <v>0.9953768503362147</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7898401917657509</v>
+        <v>0.8202552810649125</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6466508182103183</v>
+        <v>0.9890410298414144</v>
       </c>
       <c r="E22" t="n">
-        <v>0.766591680882901</v>
+        <v>0.9648295987546873</v>
       </c>
       <c r="F22" t="n">
-        <v>0.786648932267732</v>
+        <v>0.9887035424392472</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3292811205885856</v>
+        <v>0.03091502308937926</v>
       </c>
       <c r="H22" t="n">
-        <v>1.405339605359361</v>
+        <v>1.201953763167258</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5554826959912375</v>
+        <v>0.1274250179643018</v>
       </c>
       <c r="J22" t="n">
-        <v>1.490075654864802</v>
+        <v>0.01204383595812645</v>
       </c>
       <c r="K22" t="n">
-        <v>1.022779165888746</v>
+        <v>0.06973440653050662</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4974144865433937</v>
+        <v>0.1686586748083911</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5738302193058376</v>
+        <v>0.1758266848046088</v>
       </c>
       <c r="N22" t="n">
-        <v>1.031940721821714</v>
+        <v>1.002998799781915</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5982593597339971</v>
+        <v>0.1833119907881549</v>
       </c>
       <c r="P22" t="n">
-        <v>124.2216868463884</v>
+        <v>128.9530260582107</v>
       </c>
       <c r="Q22" t="n">
-        <v>198.5731121633487</v>
+        <v>203.3044513751709</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9502137866069862</v>
+        <v>0.9950157468704461</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7888434333980485</v>
+        <v>0.8199179864439653</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6439999050837051</v>
+        <v>0.9886316425864694</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7641389174304879</v>
+        <v>0.9713618851495243</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7845811100832811</v>
+        <v>0.9884991689970207</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3329206382035174</v>
+        <v>0.03332972362770208</v>
       </c>
       <c r="H23" t="n">
-        <v>1.412004933153837</v>
+        <v>1.204209253850631</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5596500648328786</v>
+        <v>0.1321851530464155</v>
       </c>
       <c r="J23" t="n">
-        <v>1.50573406464817</v>
+        <v>0.009806904248926695</v>
       </c>
       <c r="K23" t="n">
-        <v>1.03269205487261</v>
+        <v>0.07099602864767109</v>
       </c>
       <c r="L23" t="n">
-        <v>0.5027673113267769</v>
+        <v>0.1693767143784965</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5769927540303408</v>
+        <v>0.1825642999814095</v>
       </c>
       <c r="N23" t="n">
-        <v>1.032293760038712</v>
+        <v>1.003233029057008</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6015565301090718</v>
+        <v>0.1903364401918182</v>
       </c>
       <c r="P23" t="n">
-        <v>124.1997022822369</v>
+        <v>128.80261135739</v>
       </c>
       <c r="Q23" t="n">
-        <v>198.5511275991972</v>
+        <v>203.1540366743503</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9495858423375501</v>
+        <v>0.9945621293608974</v>
       </c>
       <c r="C24" t="n">
-        <v>0.787711429890944</v>
+        <v>0.8194931324564657</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6407646560308087</v>
+        <v>0.9881420838570988</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7613896720685321</v>
+        <v>0.977891957635768</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7822200625057716</v>
+        <v>0.9882192334512313</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3371197044246538</v>
+        <v>0.03636306600277082</v>
       </c>
       <c r="H24" t="n">
-        <v>1.419574645818241</v>
+        <v>1.207050254421314</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5647360391572105</v>
+        <v>0.1378774789659051</v>
       </c>
       <c r="J24" t="n">
-        <v>1.523285211062301</v>
+        <v>0.007570730675857908</v>
       </c>
       <c r="K24" t="n">
-        <v>1.044010630859205</v>
+        <v>0.07272410482088153</v>
       </c>
       <c r="L24" t="n">
-        <v>0.5087228836231124</v>
+        <v>0.1700805605790257</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5806201033590327</v>
+        <v>0.1906910223444481</v>
       </c>
       <c r="N24" t="n">
-        <v>1.032701075240508</v>
+        <v>1.00352726744158</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6053383032083345</v>
+        <v>0.1988091339504858</v>
       </c>
       <c r="P24" t="n">
-        <v>124.1746344113852</v>
+        <v>128.6284033794387</v>
       </c>
       <c r="Q24" t="n">
-        <v>198.5260597283455</v>
+        <v>202.9798286963989</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9488594992601891</v>
+        <v>0.9939940827411299</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7864236219580693</v>
+        <v>0.8189603224044776</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6368080617535812</v>
+        <v>0.9875584470527019</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7583064724194623</v>
+        <v>0.9842155200189613</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7795183817814297</v>
+        <v>0.9878449690391377</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3419767639274691</v>
+        <v>0.04016159636477035</v>
       </c>
       <c r="H25" t="n">
-        <v>1.428186223395185</v>
+        <v>1.210613157692323</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5709560044757265</v>
+        <v>0.1446636942040802</v>
       </c>
       <c r="J25" t="n">
-        <v>1.542968317275246</v>
+        <v>0.005405274914266091</v>
       </c>
       <c r="K25" t="n">
-        <v>1.056962160875486</v>
+        <v>0.07503448455917312</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5153470978617227</v>
+        <v>0.1707648942895124</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5847877939282498</v>
+        <v>0.2004035837123936</v>
       </c>
       <c r="N25" t="n">
-        <v>1.033172216696093</v>
+        <v>1.003895730113862</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6096834209933919</v>
+        <v>0.2089351791636384</v>
       </c>
       <c r="P25" t="n">
-        <v>124.1460249719204</v>
+        <v>128.4296881085398</v>
       </c>
       <c r="Q25" t="n">
-        <v>198.4974502888807</v>
+        <v>202.7811134255</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9480174784173349</v>
+        <v>0.9932848769378068</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7849559938770341</v>
+        <v>0.8182947311237695</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6319670338423766</v>
+        <v>0.9868653093550518</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7548475194869759</v>
+        <v>0.9900466220989216</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7764214903603159</v>
+        <v>0.9873539212854126</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3476073611807851</v>
+        <v>0.04490405883718446</v>
       </c>
       <c r="H26" t="n">
-        <v>1.438000259130874</v>
+        <v>1.215063969651184</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5785663439757777</v>
+        <v>0.1527231270063133</v>
       </c>
       <c r="J26" t="n">
-        <v>1.565050227532417</v>
+        <v>0.003408458431670734</v>
       </c>
       <c r="K26" t="n">
-        <v>1.071808283082428</v>
+        <v>0.07806578206991953</v>
       </c>
       <c r="L26" t="n">
-        <v>0.5227176244288703</v>
+        <v>0.1714090765266356</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5895823616601714</v>
+        <v>0.2119057782062218</v>
       </c>
       <c r="N26" t="n">
-        <v>1.033718392377945</v>
+        <v>1.004355755499801</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6146821033997849</v>
+        <v>0.2209270458898939</v>
       </c>
       <c r="P26" t="n">
-        <v>124.1133634173104</v>
+        <v>128.2064541821097</v>
       </c>
       <c r="Q26" t="n">
-        <v>198.4647887342707</v>
+        <v>202.5578794990699</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_2_6.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_2_6.xlsx
@@ -518,1046 +518,1046 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_18</t>
+          <t>model_2_6_11</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9966128480731739</v>
+        <v>0.9684310466701003</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8213610991351497</v>
+        <v>0.8106458927643053</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9908832428961747</v>
+        <v>0.5099064724709307</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9044140336577194</v>
+        <v>0.9759097466392798</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9887627809395688</v>
+        <v>0.9283926062116936</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02264990053108689</v>
+        <v>0.2111017362787035</v>
       </c>
       <c r="H2" t="n">
-        <v>1.194559152639758</v>
+        <v>1.266211786980583</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1060047541803915</v>
+        <v>0.944829371129509</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03273268594508429</v>
+        <v>0.3429001194695209</v>
       </c>
       <c r="K2" t="n">
-        <v>0.06936872006273788</v>
+        <v>0.6438648280882375</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1609835215423099</v>
+        <v>1.311697112346582</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1504988389692322</v>
+        <v>0.459458089795689</v>
       </c>
       <c r="N2" t="n">
-        <v>1.002197071520103</v>
+        <v>1.020477158916692</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1569058861196976</v>
+        <v>0.4790181718876547</v>
       </c>
       <c r="P2" t="n">
-        <v>129.5751996372525</v>
+        <v>125.1108301985015</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.9266249542127</v>
+        <v>199.4622555154617</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_17</t>
+          <t>model_2_6_10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.996608465253454</v>
+        <v>0.9689938389834218</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8213604154170185</v>
+        <v>0.8106456965535076</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9908550123255638</v>
+        <v>0.5202283605572372</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9067712457236887</v>
+        <v>0.9766849207889167</v>
       </c>
       <c r="F3" t="n">
-        <v>0.988801579988991</v>
+        <v>0.9301127088372256</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0226792084667342</v>
+        <v>0.2073383414881022</v>
       </c>
       <c r="H3" t="n">
-        <v>1.194563724666049</v>
+        <v>1.266213099043091</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1063330040902989</v>
+        <v>0.9249302651800314</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03192547663168945</v>
+        <v>0.3318663082206295</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06912920881145816</v>
+        <v>0.6283983584586285</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1613261748556496</v>
+        <v>1.350045287226042</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1505961767998583</v>
+        <v>0.455344201113951</v>
       </c>
       <c r="N3" t="n">
-        <v>1.002199914430192</v>
+        <v>1.020112104443186</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1570073678232905</v>
+        <v>0.4747291464478114</v>
       </c>
       <c r="P3" t="n">
-        <v>129.5726134015748</v>
+        <v>125.146806640231</v>
       </c>
       <c r="Q3" t="n">
-        <v>203.9240387185351</v>
+        <v>199.4982319571912</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_19</t>
+          <t>model_2_6_12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.996614594302926</v>
+        <v>0.9679035653770647</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8213595096779782</v>
+        <v>0.8106247458600826</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9909064090115924</v>
+        <v>0.500557120439742</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9022742011557484</v>
+        <v>0.9752052816952905</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9887252467534652</v>
+        <v>0.9268327240237786</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02263822348469405</v>
+        <v>0.2146290061140606</v>
       </c>
       <c r="H4" t="n">
-        <v>1.194569781347182</v>
+        <v>1.266353196426493</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1057353910348992</v>
+        <v>0.9628535683569912</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03346545528291041</v>
+        <v>0.3529274574903767</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06960042315890479</v>
+        <v>0.6578906601095654</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1606697985098755</v>
+        <v>1.277096957173031</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1504600394945251</v>
+        <v>0.4632806990519469</v>
       </c>
       <c r="N4" t="n">
-        <v>1.002195938830535</v>
+        <v>1.020819308944607</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1568654348710261</v>
+        <v>0.4830035175338435</v>
       </c>
       <c r="P4" t="n">
-        <v>129.5762309934329</v>
+        <v>125.0776885885874</v>
       </c>
       <c r="Q4" t="n">
-        <v>203.9276563103932</v>
+        <v>199.4291139055476</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_16</t>
+          <t>model_2_6_9</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9966006368463154</v>
+        <v>0.9695898381448769</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8213567756064643</v>
+        <v>0.8106161057434603</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9908207449138893</v>
+        <v>0.5316087276139627</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9093653516538666</v>
+        <v>0.9775360411546679</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9888412540540489</v>
+        <v>0.9320063873995896</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02273155706131697</v>
+        <v>0.2033528923511286</v>
       </c>
       <c r="H5" t="n">
-        <v>1.194588064095986</v>
+        <v>1.26641097292613</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1067314471451695</v>
+        <v>0.902990565009657</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03103714481928998</v>
+        <v>0.3197514802556036</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06888429598222971</v>
+        <v>0.6113711639538908</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1616952040487632</v>
+        <v>1.392535197683853</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1507698811477842</v>
+        <v>0.4509466624237601</v>
       </c>
       <c r="N5" t="n">
-        <v>1.002204992315904</v>
+        <v>1.019725510392512</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1571884671249251</v>
+        <v>0.4701443954314192</v>
       </c>
       <c r="P5" t="n">
-        <v>129.5680022819724</v>
+        <v>125.1856248464365</v>
       </c>
       <c r="Q5" t="n">
-        <v>203.9194275989327</v>
+        <v>199.5370501633967</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_20</t>
+          <t>model_2_6_13</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9966144165411936</v>
+        <v>0.9674120549275055</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8213563069678591</v>
+        <v>0.81058848524997</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9909255410308347</v>
+        <v>0.4920973680070647</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9003338303453644</v>
+        <v>0.9745659639521091</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9886894457126558</v>
+        <v>0.9254197900066072</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02263941217821631</v>
+        <v>0.2179157387534602</v>
       </c>
       <c r="H6" t="n">
-        <v>1.194591197884496</v>
+        <v>1.266595671293281</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1055129341926627</v>
+        <v>0.9791627463442556</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03412992048406634</v>
+        <v>0.3620274917338247</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06982142733836452</v>
+        <v>0.6705951933977825</v>
       </c>
       <c r="L6" t="n">
-        <v>0.160380506350002</v>
+        <v>1.245881143601754</v>
       </c>
       <c r="M6" t="n">
-        <v>0.150463989639436</v>
+        <v>0.4668144585951256</v>
       </c>
       <c r="N6" t="n">
-        <v>1.002196054135442</v>
+        <v>1.02113812653351</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1568695531817839</v>
+        <v>0.486687716536666</v>
       </c>
       <c r="P6" t="n">
-        <v>129.5761259796878</v>
+        <v>125.047293620781</v>
       </c>
       <c r="Q6" t="n">
-        <v>203.9275512966481</v>
+        <v>199.3987189377413</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_21</t>
+          <t>model_2_6_8</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9966128015095291</v>
+        <v>0.9702152609638702</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8213520422408713</v>
+        <v>0.8105468551257674</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9909412742644762</v>
+        <v>0.5441357964857509</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8985747155518924</v>
+        <v>0.9784685938546226</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9886554667403304</v>
+        <v>0.9340874898718639</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02265021190239379</v>
+        <v>0.1991706870807128</v>
       </c>
       <c r="H7" t="n">
-        <v>1.194619716133501</v>
+        <v>1.266874052125512</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1053299966036025</v>
+        <v>0.8788401897457728</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03473231594314329</v>
+        <v>0.3064775462940981</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07003118366745079</v>
+        <v>0.5926587291806575</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1601183851566184</v>
+        <v>1.439607847299493</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1504998734298265</v>
+        <v>0.4462854322972158</v>
       </c>
       <c r="N7" t="n">
-        <v>1.002197101723549</v>
+        <v>1.019319830726138</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1569069646194209</v>
+        <v>0.4652847270883113</v>
       </c>
       <c r="P7" t="n">
-        <v>129.5751721431656</v>
+        <v>125.227186195738</v>
       </c>
       <c r="Q7" t="n">
-        <v>203.9265974601258</v>
+        <v>199.5786115126983</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_15</t>
+          <t>model_2_6_14</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9965882808616794</v>
+        <v>0.966956334513785</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8213490290521597</v>
+        <v>0.8105419271517358</v>
       </c>
       <c r="D8" t="n">
-        <v>0.990779101586201</v>
+        <v>0.4844499612455671</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9122164923176144</v>
+        <v>0.9739865702694729</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9888811118522508</v>
+        <v>0.9241413635407806</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02281418158747207</v>
+        <v>0.2209631432584083</v>
       </c>
       <c r="H8" t="n">
-        <v>1.19463986534029</v>
+        <v>1.266907005510554</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1072156533891858</v>
+        <v>0.9939058394792873</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03006079342061784</v>
+        <v>0.3702745682597953</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06863824894595533</v>
+        <v>0.6820902889891176</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1620998320983373</v>
+        <v>1.217729283710628</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1510436413341259</v>
+        <v>0.4700671688795212</v>
       </c>
       <c r="N8" t="n">
-        <v>1.00221300700864</v>
+        <v>1.021433728964031</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1574738818491611</v>
+        <v>0.4900789014319069</v>
       </c>
       <c r="P8" t="n">
-        <v>129.5607458738654</v>
+        <v>125.0195187279177</v>
       </c>
       <c r="Q8" t="n">
-        <v>203.9121711908256</v>
+        <v>199.370944044878</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_22</t>
+          <t>model_2_6_15</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9966101954594163</v>
+        <v>0.9665354180673289</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8213469903043092</v>
+        <v>0.8104888203952019</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9909542612190312</v>
+        <v>0.4775400272068999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8969830303666827</v>
+        <v>0.9734620388552205</v>
       </c>
       <c r="F9" t="n">
-        <v>0.988623554170845</v>
+        <v>0.922985439222371</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02266763857149788</v>
+        <v>0.2237778134740026</v>
       </c>
       <c r="H9" t="n">
-        <v>1.194653498456554</v>
+        <v>1.267262130636029</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1051789912724876</v>
+        <v>1.007227191967284</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03527737640844577</v>
+        <v>0.3777407365030034</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0702281838404667</v>
+        <v>0.6924838946376639</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1598828596609602</v>
+        <v>1.1923402748321</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1505577582574139</v>
+        <v>0.4730515970525864</v>
       </c>
       <c r="N9" t="n">
-        <v>1.002198792134433</v>
+        <v>1.021706755848219</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1569673137239568</v>
+        <v>0.4931903828909174</v>
       </c>
       <c r="P9" t="n">
-        <v>129.5736339704781</v>
+        <v>124.9942032470469</v>
       </c>
       <c r="Q9" t="n">
-        <v>203.9250592874384</v>
+        <v>199.3456285640072</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_23</t>
+          <t>model_2_6_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9966069139871071</v>
+        <v>0.9661480112155211</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8213415523521389</v>
+        <v>0.8104319464382521</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9909649838349134</v>
+        <v>0.4713014888367728</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8955436854980007</v>
+        <v>0.9729875585848069</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9885937300487003</v>
+        <v>0.9219410819518101</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02268958179193933</v>
+        <v>0.2263684048758866</v>
       </c>
       <c r="H10" t="n">
-        <v>1.194689862067756</v>
+        <v>1.267642447048034</v>
       </c>
       <c r="I10" t="n">
-        <v>0.105054314455082</v>
+        <v>1.019254190803062</v>
       </c>
       <c r="J10" t="n">
-        <v>0.03577026909296949</v>
+        <v>0.3844944779010095</v>
       </c>
       <c r="K10" t="n">
-        <v>0.07041229177402576</v>
+        <v>0.7018743343520357</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1596661595680591</v>
+        <v>1.16944975931296</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1506306137275532</v>
+        <v>0.4757818879233284</v>
       </c>
       <c r="N10" t="n">
-        <v>1.002200920657012</v>
+        <v>1.021958046779121</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1570432708022916</v>
+        <v>0.4960369078965082</v>
       </c>
       <c r="P10" t="n">
-        <v>129.5716988234848</v>
+        <v>124.9711829936537</v>
       </c>
       <c r="Q10" t="n">
-        <v>203.923124140445</v>
+        <v>199.322608310614</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_14</t>
+          <t>model_2_6_7</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9965700452942626</v>
+        <v>0.9708639082703794</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8213360196064746</v>
+        <v>0.8104247476796902</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9907285271839973</v>
+        <v>0.5578977246841206</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9153434678095429</v>
+        <v>0.9794875411863502</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9889202175158208</v>
+        <v>0.9363693395168329</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02293612291075464</v>
+        <v>0.1948331795553396</v>
       </c>
       <c r="H11" t="n">
-        <v>1.194726859563489</v>
+        <v>1.267690585179684</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1078037053699909</v>
+        <v>0.8523091844685735</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02898998448650342</v>
+        <v>0.2919738731051638</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06839684492824717</v>
+        <v>0.5721412567290751</v>
       </c>
       <c r="L11" t="n">
-        <v>0.162538560886265</v>
+        <v>1.491746080528788</v>
       </c>
       <c r="M11" t="n">
-        <v>0.151446765930325</v>
+        <v>0.4413991159430879</v>
       </c>
       <c r="N11" t="n">
-        <v>1.002224835484803</v>
+        <v>1.018899086527322</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1578941682940033</v>
+        <v>0.4601903901309189</v>
       </c>
       <c r="P11" t="n">
-        <v>129.5500843831159</v>
+        <v>125.2712231520363</v>
       </c>
       <c r="Q11" t="n">
-        <v>203.9015097000762</v>
+        <v>199.6226484689965</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_24</t>
+          <t>model_2_6_17</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9966031807042826</v>
+        <v>0.9657925349337377</v>
       </c>
       <c r="C12" t="n">
-        <v>0.821335872769172</v>
+        <v>0.810373378022199</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9909738514093419</v>
+        <v>0.4656718983168797</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8942403199635038</v>
+        <v>0.972558881244199</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9885659304826068</v>
+        <v>0.9209982672856617</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0227145462713774</v>
+        <v>0.2287454764089891</v>
       </c>
       <c r="H12" t="n">
-        <v>1.194727841465208</v>
+        <v>1.268034094315863</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1049512070631926</v>
+        <v>1.030107226339859</v>
       </c>
       <c r="J12" t="n">
-        <v>0.03621659669047016</v>
+        <v>0.3905962614359225</v>
       </c>
       <c r="K12" t="n">
-        <v>0.07058390187683139</v>
+        <v>0.7103517438878908</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1594669626197265</v>
+        <v>1.148813201925799</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1507134574992472</v>
+        <v>0.4782734326815458</v>
       </c>
       <c r="N12" t="n">
-        <v>1.002203342245871</v>
+        <v>1.022188625988927</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1571296414048569</v>
+        <v>0.4986345228732915</v>
       </c>
       <c r="P12" t="n">
-        <v>129.5694995096322</v>
+        <v>124.9502907005666</v>
       </c>
       <c r="Q12" t="n">
-        <v>203.9209248265924</v>
+        <v>199.3017160175268</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_13</t>
+          <t>model_2_6_18</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9965442484649697</v>
+        <v>0.9654670617491455</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8213160640722431</v>
+        <v>0.8103147731923882</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9906671240115045</v>
+        <v>0.4605937114691644</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9187667358953422</v>
+        <v>0.9721715737852172</v>
       </c>
       <c r="F13" t="n">
-        <v>0.98895733884586</v>
+        <v>0.9201473097394345</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02310862642702053</v>
+        <v>0.2309219170930238</v>
       </c>
       <c r="H13" t="n">
-        <v>1.194860302312782</v>
+        <v>1.268425985082658</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1085176684746197</v>
+        <v>1.039897235422402</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02781771241094526</v>
+        <v>0.3961091870148967</v>
       </c>
       <c r="K13" t="n">
-        <v>0.06816769044278245</v>
+        <v>0.7180032112186492</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1630027060829071</v>
+        <v>1.130212809363097</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1520152177481601</v>
+        <v>0.4805433561012199</v>
       </c>
       <c r="N13" t="n">
-        <v>1.002241568563263</v>
+        <v>1.022399743730284</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1584868202825812</v>
+        <v>0.5010010816323305</v>
       </c>
       <c r="P13" t="n">
-        <v>129.535098585532</v>
+        <v>124.9313512936894</v>
       </c>
       <c r="Q13" t="n">
-        <v>203.8865239024922</v>
+        <v>199.2827766106497</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_12</t>
+          <t>model_2_6_19</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9965087268559225</v>
+        <v>0.9651697571796046</v>
       </c>
       <c r="C14" t="n">
-        <v>0.821287142024158</v>
+        <v>0.8102572190488735</v>
       </c>
       <c r="D14" t="n">
-        <v>0.990592391779068</v>
+        <v>0.4560144065622025</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9225062465990017</v>
+        <v>0.9718220759504704</v>
       </c>
       <c r="F14" t="n">
-        <v>0.988990687179821</v>
+        <v>0.9193797417927484</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0233461595902806</v>
+        <v>0.2329099941185053</v>
       </c>
       <c r="H14" t="n">
-        <v>1.195053704181501</v>
+        <v>1.268810849905353</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1093866147280476</v>
+        <v>1.048725472345401</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0265371454602189</v>
+        <v>0.4010839312608181</v>
       </c>
       <c r="K14" t="n">
-        <v>0.06796182712102521</v>
+        <v>0.7249048728752662</v>
       </c>
       <c r="L14" t="n">
-        <v>0.163514768221268</v>
+        <v>1.113448430813404</v>
       </c>
       <c r="M14" t="n">
-        <v>0.152794501178153</v>
+        <v>0.4826074948843058</v>
       </c>
       <c r="N14" t="n">
-        <v>1.002264609606969</v>
+        <v>1.022592589937554</v>
       </c>
       <c r="O14" t="n">
-        <v>0.159299279421528</v>
+        <v>0.5031530950767686</v>
       </c>
       <c r="P14" t="n">
-        <v>129.514645559805</v>
+        <v>124.9142063827661</v>
       </c>
       <c r="Q14" t="n">
-        <v>203.8660708767652</v>
+        <v>199.2656316997263</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_11</t>
+          <t>model_2_6_6</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9964608892731684</v>
+        <v>0.9715264016319144</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8212466876937345</v>
+        <v>0.810232996436399</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9905017060494362</v>
+        <v>0.5729780552888402</v>
       </c>
       <c r="E15" t="n">
-        <v>0.926580542681411</v>
+        <v>0.9805973702303894</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9890182794401413</v>
+        <v>0.9388644041994212</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02366604972642884</v>
+        <v>0.1904030833962533</v>
       </c>
       <c r="H15" t="n">
-        <v>1.195324222475317</v>
+        <v>1.268972826626505</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1104410596768173</v>
+        <v>0.8232364902146441</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02514193380712709</v>
+        <v>0.2761765916862672</v>
       </c>
       <c r="K15" t="n">
-        <v>0.06779149674197221</v>
+        <v>0.5497066405821306</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1640469318272086</v>
+        <v>1.549482380686652</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1538377383038013</v>
+        <v>0.4363520177520132</v>
       </c>
       <c r="N15" t="n">
-        <v>1.002295639390377</v>
+        <v>1.018469361103623</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1603869293114136</v>
+        <v>0.4549284265209166</v>
       </c>
       <c r="P15" t="n">
-        <v>129.4874275176922</v>
+        <v>125.3172239248959</v>
       </c>
       <c r="Q15" t="n">
-        <v>203.8388528346524</v>
+        <v>199.6686492418561</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_10</t>
+          <t>model_2_6_20</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9963974379014171</v>
+        <v>0.9648986076630066</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8211915712357056</v>
+        <v>0.8102015617944254</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9903917922050619</v>
+        <v>0.4518870598842718</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9310022099135022</v>
+        <v>0.9715065349859173</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9890373990902382</v>
+        <v>0.9186875575010585</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02409034934149707</v>
+        <v>0.2347231721845249</v>
       </c>
       <c r="H16" t="n">
-        <v>1.195692786483945</v>
+        <v>1.269183030222127</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1117190788146778</v>
+        <v>1.056682399231997</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02362776755029976</v>
+        <v>0.4055753341872479</v>
       </c>
       <c r="K16" t="n">
-        <v>0.06767346881636721</v>
+        <v>0.7311287150848</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1646253796204154</v>
+        <v>1.098343083129191</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1552106611721536</v>
+        <v>0.4844823755148632</v>
       </c>
       <c r="N16" t="n">
-        <v>1.002336797036919</v>
+        <v>1.022768470705077</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1618183003486139</v>
+        <v>0.5051077932573068</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4518879218909</v>
+        <v>124.8986968998371</v>
       </c>
       <c r="Q16" t="n">
-        <v>203.8033132388512</v>
+        <v>199.2501222167973</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_9</t>
+          <t>model_2_6_21</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9963142585474954</v>
+        <v>0.9646517406442661</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8211179501589222</v>
+        <v>0.8101482862908433</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9902584765415665</v>
+        <v>0.4481668050258273</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9357841115814025</v>
+        <v>0.9712220321044044</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9890444857919489</v>
+        <v>0.9180635540617086</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02464657006417682</v>
+        <v>0.2363739730755607</v>
       </c>
       <c r="H17" t="n">
-        <v>1.19618509096339</v>
+        <v>1.269539283759891</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1132692017340765</v>
+        <v>1.063854512024564</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02199024175540264</v>
+        <v>0.4096249417442721</v>
       </c>
       <c r="K17" t="n">
-        <v>0.06762972174473959</v>
+        <v>0.7367395025460948</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1652353855197964</v>
+        <v>1.084730935102765</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1569922611601502</v>
+        <v>0.4861830653936444</v>
       </c>
       <c r="N17" t="n">
-        <v>1.002390751212435</v>
+        <v>1.022928600663179</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1636757467365199</v>
+        <v>0.5068808850251412</v>
       </c>
       <c r="P17" t="n">
-        <v>129.4062350672891</v>
+        <v>124.8846801929688</v>
       </c>
       <c r="Q17" t="n">
-        <v>203.7576603842494</v>
+        <v>199.236105509929</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_8</t>
+          <t>model_2_6_22</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9962063245913019</v>
+        <v>0.9644272506165471</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8210208495152888</v>
+        <v>0.8100978271344598</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9900970542957136</v>
+        <v>0.4448142512800398</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9409332906297038</v>
+        <v>0.9709654957429122</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9890352853016142</v>
+        <v>0.9175010896819902</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02536832492623338</v>
+        <v>0.2378751389245994</v>
       </c>
       <c r="H18" t="n">
-        <v>1.196834403414474</v>
+        <v>1.26987670437097</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1151461328945762</v>
+        <v>1.070317750303348</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02022694461971733</v>
+        <v>0.4132764744901822</v>
       </c>
       <c r="K18" t="n">
-        <v>0.06768651749064733</v>
+        <v>0.7417969555826319</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1658733977030614</v>
+        <v>1.072470355532239</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1592743699602462</v>
+        <v>0.4877244497916825</v>
       </c>
       <c r="N18" t="n">
-        <v>1.002460762427264</v>
+        <v>1.023074215816294</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1660550096328524</v>
+        <v>0.5084878893481093</v>
       </c>
       <c r="P18" t="n">
-        <v>129.34850786664</v>
+        <v>124.8720187386849</v>
       </c>
       <c r="Q18" t="n">
-        <v>203.6999331836003</v>
+        <v>199.2234440556452</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_7</t>
+          <t>model_2_6_23</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9960673139122762</v>
+        <v>0.9642233949791132</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8208943482301948</v>
+        <v>0.8100503702946414</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9899019072279263</v>
+        <v>0.4417943603984964</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9464407976426551</v>
+        <v>0.9707342548721447</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9890042513382311</v>
+        <v>0.9169943252276543</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0262978899769633</v>
+        <v>0.2392383225107881</v>
       </c>
       <c r="H19" t="n">
-        <v>1.197680318090382</v>
+        <v>1.270194048477354</v>
       </c>
       <c r="I19" t="n">
-        <v>0.117415198167923</v>
+        <v>1.076139662738866</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01834094080248603</v>
+        <v>0.4165679517953445</v>
       </c>
       <c r="K19" t="n">
-        <v>0.06787809392132668</v>
+        <v>0.7463535773364798</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1665417504742552</v>
+        <v>1.061422152120871</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1621662417920675</v>
+        <v>0.48911994695656</v>
       </c>
       <c r="N19" t="n">
-        <v>1.002550931516361</v>
+        <v>1.023206446500035</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1690699944355543</v>
+        <v>0.509942795716373</v>
       </c>
       <c r="P19" t="n">
-        <v>129.2765331440595</v>
+        <v>124.8605901171452</v>
       </c>
       <c r="Q19" t="n">
-        <v>203.6279584610197</v>
+        <v>199.2120154341054</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_2_6_6</t>
+          <t>model_2_6_24</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9958894978185076</v>
+        <v>0.964038410429508</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8207310169186284</v>
+        <v>0.8100059690997514</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9896663409857567</v>
+        <v>0.4390731593275145</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9522879356114418</v>
+        <v>0.970525886626241</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9889445898051803</v>
+        <v>0.9165376428273628</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02748694701476243</v>
+        <v>0.2404753150457742</v>
       </c>
       <c r="H20" t="n">
-        <v>1.198772515322899</v>
+        <v>1.270490959472033</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1201542358882441</v>
+        <v>1.081385744460401</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01633863295193274</v>
+        <v>0.4195338606774219</v>
       </c>
       <c r="K20" t="n">
-        <v>0.06824639182158644</v>
+        <v>0.7504598814427836</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1672309958788797</v>
+        <v>1.051471231090206</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1657918786152157</v>
+        <v>0.4903828249906131</v>
       </c>
       <c r="N20" t="n">
-        <v>1.002666271685292</v>
+        <v>1.023326436478157</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1728499821243668</v>
+        <v>0.5112594370828536</v>
       </c>
       <c r="P20" t="n">
-        <v>129.1880880820042</v>
+        <v>124.850275669693</v>
       </c>
       <c r="Q20" t="n">
-        <v>203.5395133989645</v>
+        <v>199.2017009866532</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9956632639747994</v>
+        <v>0.9721890441397052</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8205217281218483</v>
+        <v>0.8099503361120836</v>
       </c>
       <c r="D21" t="n">
-        <v>0.989382389124456</v>
+        <v>0.5894520613707199</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9584389256087485</v>
+        <v>0.981801319263914</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9888477696457165</v>
+        <v>0.9415834143700265</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0289997737693497</v>
+        <v>0.1859719898954681</v>
       </c>
       <c r="H21" t="n">
-        <v>1.200172030470652</v>
+        <v>1.270862977516734</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1234558755955936</v>
+        <v>0.7914769914006083</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01423227328913211</v>
+        <v>0.2590396084736321</v>
       </c>
       <c r="K21" t="n">
-        <v>0.06884407444236286</v>
+        <v>0.5252583968540814</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1679419178339744</v>
+        <v>1.61341365491348</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1702931994219079</v>
+        <v>0.4312446983969404</v>
       </c>
       <c r="N21" t="n">
-        <v>1.002813017962292</v>
+        <v>1.018039538936407</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1775429334768186</v>
+        <v>0.4496036780072898</v>
       </c>
       <c r="P21" t="n">
-        <v>129.080934500166</v>
+        <v>125.3643184171378</v>
       </c>
       <c r="Q21" t="n">
-        <v>203.4323598171262</v>
+        <v>199.715743734098</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9953768503362147</v>
+        <v>0.9728327919455978</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8202552810649125</v>
+        <v>0.8095497104390125</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9890410298414144</v>
+        <v>0.6073786544762729</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9648295987546873</v>
+        <v>0.9831013884554572</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9887035424392472</v>
+        <v>0.9445342514480042</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03091502308937926</v>
+        <v>0.1816672453532781</v>
       </c>
       <c r="H22" t="n">
-        <v>1.201953763167258</v>
+        <v>1.273541963237272</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1274250179643018</v>
+        <v>0.7569171150933055</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01204383595812645</v>
+        <v>0.240534453113759</v>
       </c>
       <c r="K22" t="n">
-        <v>0.06973440653050662</v>
+        <v>0.4987256589981927</v>
       </c>
       <c r="L22" t="n">
-        <v>0.1686586748083911</v>
+        <v>1.684187803354644</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1758266848046088</v>
+        <v>0.4262244072707218</v>
       </c>
       <c r="N22" t="n">
-        <v>1.002998799781915</v>
+        <v>1.017621972792045</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1833119907881549</v>
+        <v>0.4443696626943927</v>
       </c>
       <c r="P22" t="n">
-        <v>128.9530260582107</v>
+        <v>125.4111571751224</v>
       </c>
       <c r="Q22" t="n">
-        <v>203.3044513751709</v>
+        <v>199.7625824920826</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9950157468704461</v>
+        <v>0.9734310729160209</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8199179864439653</v>
+        <v>0.8089968628913673</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9886316425864694</v>
+        <v>0.6267888625025591</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9713618851495243</v>
+        <v>0.9844971045823387</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9884991689970207</v>
+        <v>0.947719777378789</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03332972362770208</v>
+        <v>0.1776665377492281</v>
       </c>
       <c r="H23" t="n">
-        <v>1.204209253850631</v>
+        <v>1.277238857334004</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1321851530464155</v>
+        <v>0.7194970439990569</v>
       </c>
       <c r="J23" t="n">
-        <v>0.009806904248926695</v>
+        <v>0.2206678614475398</v>
       </c>
       <c r="K23" t="n">
-        <v>0.07099602864767109</v>
+        <v>0.4700826935544438</v>
       </c>
       <c r="L23" t="n">
-        <v>0.1693767143784965</v>
+        <v>1.762538438913888</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1825642999814095</v>
+        <v>0.4215050862673285</v>
       </c>
       <c r="N23" t="n">
-        <v>1.003233029057008</v>
+        <v>1.017233898649067</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1903364401918182</v>
+        <v>0.4394494304255438</v>
       </c>
       <c r="P23" t="n">
-        <v>128.80261135739</v>
+        <v>125.4556937381975</v>
       </c>
       <c r="Q23" t="n">
-        <v>203.1540366743503</v>
+        <v>199.8071190551578</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9945621293608974</v>
+        <v>0.9739480397447287</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8194931324564657</v>
+        <v>0.8082483801416719</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9881420838570988</v>
+        <v>0.6476722938977582</v>
       </c>
       <c r="E24" t="n">
-        <v>0.977891957635768</v>
+        <v>0.985985216473398</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9882192334512313</v>
+        <v>0.9511364312755946</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03636306600277082</v>
+        <v>0.174209578185246</v>
       </c>
       <c r="H24" t="n">
-        <v>1.207050254421314</v>
+        <v>1.282243964927663</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1378774789659051</v>
+        <v>0.6792368115254055</v>
       </c>
       <c r="J24" t="n">
-        <v>0.007570730675857908</v>
+        <v>0.1994861105714678</v>
       </c>
       <c r="K24" t="n">
-        <v>0.07272410482088153</v>
+        <v>0.4393615185818254</v>
       </c>
       <c r="L24" t="n">
-        <v>0.1700805605790257</v>
+        <v>1.849275764072104</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1906910223444481</v>
+        <v>0.4173842093146865</v>
       </c>
       <c r="N24" t="n">
-        <v>1.00352726744158</v>
+        <v>1.01689856881423</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1988091339504858</v>
+        <v>0.4351531192096365</v>
       </c>
       <c r="P24" t="n">
-        <v>128.6284033794387</v>
+        <v>125.4949924644669</v>
       </c>
       <c r="Q24" t="n">
-        <v>202.9798286963989</v>
+        <v>199.8464177814272</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9939940827411299</v>
+        <v>0.9743354721801896</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8189603224044776</v>
+        <v>0.8072492891524035</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9875584470527019</v>
+        <v>0.6699562410503723</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9842155200189613</v>
+        <v>0.9875584545987496</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9878449690391377</v>
+        <v>0.9547705744893499</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04016159636477035</v>
+        <v>0.171618815705357</v>
       </c>
       <c r="H25" t="n">
-        <v>1.210613157692323</v>
+        <v>1.288924890973293</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1446636942040802</v>
+        <v>0.6362765874215709</v>
       </c>
       <c r="J25" t="n">
-        <v>0.005405274914266091</v>
+        <v>0.177092674808909</v>
       </c>
       <c r="K25" t="n">
-        <v>0.07503448455917312</v>
+        <v>0.4066847673165858</v>
       </c>
       <c r="L25" t="n">
-        <v>0.1707648942895124</v>
+        <v>1.945310921715512</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2004035837123936</v>
+        <v>0.4142690136920175</v>
       </c>
       <c r="N25" t="n">
-        <v>1.003895730113862</v>
+        <v>1.016647261288526</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2089351791636384</v>
+        <v>0.4319053032599666</v>
       </c>
       <c r="P25" t="n">
-        <v>128.4296881085398</v>
+        <v>125.5249588986133</v>
       </c>
       <c r="Q25" t="n">
-        <v>202.7811134255</v>
+        <v>199.8763842155735</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9932848769378068</v>
+        <v>0.9745292554221872</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8182947311237695</v>
+        <v>0.8059299235855066</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9868653093550518</v>
+        <v>0.6934792446298006</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9900466220989216</v>
+        <v>0.9892042675581314</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9873539212854126</v>
+        <v>0.9585950283976559</v>
       </c>
       <c r="G26" t="n">
-        <v>0.04490405883718446</v>
+        <v>0.1703229862738288</v>
       </c>
       <c r="H26" t="n">
-        <v>1.215063969651184</v>
+        <v>1.297747494594251</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1527231270063133</v>
+        <v>0.590927641902779</v>
       </c>
       <c r="J26" t="n">
-        <v>0.003408458431670734</v>
+        <v>0.1536662105062673</v>
       </c>
       <c r="K26" t="n">
-        <v>0.07806578206991953</v>
+        <v>0.3722968189787009</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1714090765266356</v>
+        <v>2.051675928413243</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2119057782062218</v>
+        <v>0.4127020550879639</v>
       </c>
       <c r="N26" t="n">
-        <v>1.004355755499801</v>
+        <v>1.016521564050473</v>
       </c>
       <c r="O26" t="n">
-        <v>0.2209270458898939</v>
+        <v>0.430271635984087</v>
       </c>
       <c r="P26" t="n">
-        <v>128.2064541821097</v>
+        <v>125.5401174504757</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.5578794990699</v>
+        <v>199.891542767436</v>
       </c>
     </row>
   </sheetData>
